--- a/RaspisanieNew/SozdanieRaspisaniya/bin/Debug/2.xlsx
+++ b/RaspisanieNew/SozdanieRaspisaniya/bin/Debug/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Группа1</x:t>
   </x:si>
@@ -32,6 +32,9 @@
   </x:si>
   <x:si>
     <x:t>Группа6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предмет2 Лекция Аудитория5 Преподаватель 4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -382,7 +385,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -412,6 +415,26 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
